--- a/www.eia.gov/electricity/monthly/xls/table_1_14_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_14_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.14.A. Utility Scale Facility Net Generation from Wind</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1392,25 +1392,25 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C7" s="10">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="D7" s="11">
-        <v>-3.5000000000000003E-2</v>
+        <v>-0.151</v>
       </c>
       <c r="E7" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="10">
         <v>27</v>
       </c>
       <c r="G7" s="10">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H7" s="10">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>17</v>
@@ -1422,7 +1422,7 @@
         <v>17</v>
       </c>
       <c r="L7" s="10">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1468,13 +1468,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="13">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C9" s="13">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D9" s="14">
-        <v>3.2000000000000001E-2</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H9" s="13">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>21</v>
       </c>
       <c r="B10" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="14">
-        <v>-0.21299999999999999</v>
+        <v>-0.115</v>
       </c>
       <c r="E10" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="13">
         <v>7</v>
@@ -1524,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>17</v>
@@ -1536,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="13">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1544,13 +1544,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="13">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="14">
-        <v>-9.6000000000000002E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="13">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="13">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>17</v>
@@ -1620,22 +1620,22 @@
         <v>24</v>
       </c>
       <c r="B13" s="13">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.189</v>
+        <v>-0.33900000000000002</v>
       </c>
       <c r="E13" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" s="13">
         <v>20</v>
       </c>
       <c r="G13" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" s="13">
         <v>12</v>
@@ -1658,13 +1658,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="10">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="C14" s="10">
-        <v>709</v>
+        <v>780</v>
       </c>
       <c r="D14" s="11">
-        <v>-6.3E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="H14" s="10">
-        <v>709</v>
+        <v>780</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="10">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1734,13 +1734,13 @@
         <v>27</v>
       </c>
       <c r="B16" s="13">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="C16" s="13">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D16" s="14">
-        <v>-0.16200000000000001</v>
+        <v>-0.104</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="H16" s="13">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="13">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="13">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="C17" s="13">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="D17" s="14">
-        <v>5.8999999999999997E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="H17" s="13">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>29</v>
       </c>
       <c r="B18" s="10">
-        <v>2037</v>
+        <v>2315</v>
       </c>
       <c r="C18" s="10">
-        <v>2500</v>
+        <v>2801</v>
       </c>
       <c r="D18" s="11">
-        <v>-0.185</v>
+        <v>-0.17399999999999999</v>
       </c>
       <c r="E18" s="10">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="F18" s="10">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="G18" s="10">
-        <v>1788</v>
+        <v>2010</v>
       </c>
       <c r="H18" s="10">
-        <v>2164</v>
+        <v>2447</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>17</v>
@@ -1840,7 +1840,7 @@
         <v>17</v>
       </c>
       <c r="L18" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,25 +1848,25 @@
         <v>30</v>
       </c>
       <c r="B19" s="13">
-        <v>960</v>
+        <v>1071</v>
       </c>
       <c r="C19" s="13">
-        <v>1167</v>
+        <v>1372</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.17699999999999999</v>
+        <v>-0.22</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="13">
-        <v>959</v>
+        <v>1069</v>
       </c>
       <c r="H19" s="13">
-        <v>1165</v>
+        <v>1370</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>17</v>
@@ -1886,13 +1886,13 @@
         <v>31</v>
       </c>
       <c r="B20" s="13">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="C20" s="13">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="D20" s="14">
-        <v>-0.109</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="13">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="H20" s="13">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="13">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K20" s="13">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>32</v>
       </c>
       <c r="B21" s="13">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="C21" s="13">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D21" s="14">
-        <v>-0.25700000000000001</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="F21" s="13">
         <v>220</v>
       </c>
       <c r="G21" s="13">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="H21" s="13">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1962,25 +1962,25 @@
         <v>33</v>
       </c>
       <c r="B22" s="13">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C22" s="13">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D22" s="14">
-        <v>-0.221</v>
+        <v>-0.123</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="13">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="H22" s="13">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>17</v>
@@ -2000,25 +2000,25 @@
         <v>34</v>
       </c>
       <c r="B23" s="13">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C23" s="13">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.22700000000000001</v>
+        <v>-0.25600000000000001</v>
       </c>
       <c r="E23" s="13">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F23" s="13">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G23" s="13">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H23" s="13">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -2038,31 +2038,31 @@
         <v>35</v>
       </c>
       <c r="B24" s="10">
-        <v>5610</v>
+        <v>5795</v>
       </c>
       <c r="C24" s="10">
-        <v>4780</v>
+        <v>5581</v>
       </c>
       <c r="D24" s="11">
-        <v>0.17399999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E24" s="10">
-        <v>1919</v>
+        <v>2111</v>
       </c>
       <c r="F24" s="10">
-        <v>1749</v>
+        <v>1988</v>
       </c>
       <c r="G24" s="10">
-        <v>3688</v>
+        <v>3682</v>
       </c>
       <c r="H24" s="10">
-        <v>3028</v>
+        <v>3589</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" s="10">
         <v>0</v>
@@ -2076,31 +2076,31 @@
         <v>36</v>
       </c>
       <c r="B25" s="13">
-        <v>1793</v>
+        <v>2045</v>
       </c>
       <c r="C25" s="13">
-        <v>1694</v>
+        <v>2044</v>
       </c>
       <c r="D25" s="14">
-        <v>5.8999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13">
-        <v>1159</v>
+        <v>1341</v>
       </c>
       <c r="F25" s="13">
-        <v>1024</v>
+        <v>1275</v>
       </c>
       <c r="G25" s="13">
-        <v>634</v>
+        <v>703</v>
       </c>
       <c r="H25" s="13">
-        <v>670</v>
+        <v>769</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="13">
-        <v>0.24</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K25" s="13">
         <v>0</v>
@@ -2114,25 +2114,25 @@
         <v>37</v>
       </c>
       <c r="B26" s="13">
-        <v>1396</v>
+        <v>1222</v>
       </c>
       <c r="C26" s="13">
-        <v>879</v>
+        <v>1152</v>
       </c>
       <c r="D26" s="14">
-        <v>0.58799999999999997</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E26" s="13">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F26" s="13">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G26" s="13">
-        <v>1321</v>
+        <v>1158</v>
       </c>
       <c r="H26" s="13">
-        <v>813</v>
+        <v>1065</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="B27" s="13">
-        <v>977</v>
+        <v>1017</v>
       </c>
       <c r="C27" s="13">
-        <v>906</v>
+        <v>1103</v>
       </c>
       <c r="D27" s="14">
-        <v>7.8E-2</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F27" s="13">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G27" s="13">
-        <v>736</v>
+        <v>778</v>
       </c>
       <c r="H27" s="13">
-        <v>657</v>
+        <v>827</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>17</v>
@@ -2190,13 +2190,13 @@
         <v>39</v>
       </c>
       <c r="B28" s="13">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C28" s="13">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="D28" s="14">
-        <v>0.16500000000000001</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="E28" s="13">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="13">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H28" s="13">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="I28" s="13">
         <v>0</v>
@@ -2228,25 +2228,25 @@
         <v>40</v>
       </c>
       <c r="B29" s="13">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C29" s="13">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="D29" s="14">
-        <v>0.23599999999999999</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E29" s="13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F29" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" s="13">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H29" s="13">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I29" s="13">
         <v>0</v>
@@ -2266,25 +2266,25 @@
         <v>41</v>
       </c>
       <c r="B30" s="13">
-        <v>729</v>
+        <v>779</v>
       </c>
       <c r="C30" s="13">
-        <v>702</v>
+        <v>583</v>
       </c>
       <c r="D30" s="14">
-        <v>3.9E-2</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E30" s="13">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F30" s="13">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="G30" s="13">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="H30" s="13">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="I30" s="13">
         <v>0</v>
@@ -2304,25 +2304,25 @@
         <v>42</v>
       </c>
       <c r="B31" s="13">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C31" s="13">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D31" s="14">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E31" s="13">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F31" s="13">
         <v>90</v>
       </c>
       <c r="G31" s="13">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H31" s="13">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C32" s="10">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="D32" s="11">
-        <v>9.9000000000000005E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -2357,16 +2357,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="10">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H32" s="10">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="10">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="K32" s="10">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="13">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>17</v>
@@ -2404,7 +2404,7 @@
         <v>17</v>
       </c>
       <c r="J33" s="13">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="K33" s="13">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>48</v>
       </c>
       <c r="B37" s="13">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C37" s="13">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D37" s="14">
-        <v>0.192</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H37" s="13">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>52</v>
       </c>
       <c r="B41" s="13">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C41" s="13">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D41" s="14">
-        <v>6.8000000000000005E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="13">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H41" s="13">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="11">
-        <v>-0.19</v>
+        <v>-0.376</v>
       </c>
       <c r="E42" s="10">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I42" s="10">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.19</v>
+        <v>-0.376</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="H46" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2912,31 +2912,31 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>7534</v>
+        <v>6211</v>
       </c>
       <c r="C47" s="10">
-        <v>4720</v>
+        <v>6309</v>
       </c>
       <c r="D47" s="11">
-        <v>0.59599999999999997</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E47" s="10">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="F47" s="10">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="G47" s="10">
-        <v>7332</v>
+        <v>6055</v>
       </c>
       <c r="H47" s="10">
-        <v>4608</v>
+        <v>6142</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" s="10">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         <v>61</v>
       </c>
       <c r="B50" s="13">
-        <v>2061</v>
+        <v>1699</v>
       </c>
       <c r="C50" s="13">
-        <v>1060</v>
+        <v>1587</v>
       </c>
       <c r="D50" s="14">
-        <v>0.94499999999999995</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E50" s="13">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F50" s="13">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="G50" s="13">
-        <v>1889</v>
+        <v>1560</v>
       </c>
       <c r="H50" s="13">
-        <v>969</v>
+        <v>1445</v>
       </c>
       <c r="I50" s="13">
         <v>0</v>
@@ -3064,31 +3064,31 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>5473</v>
+        <v>4513</v>
       </c>
       <c r="C51" s="13">
-        <v>3661</v>
+        <v>4722</v>
       </c>
       <c r="D51" s="14">
-        <v>0.495</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F51" s="13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G51" s="13">
-        <v>5443</v>
+        <v>4495</v>
       </c>
       <c r="H51" s="13">
-        <v>3639</v>
+        <v>4697</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" s="13">
         <v>0</v>
@@ -3102,25 +3102,25 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>2045</v>
+        <v>2159</v>
       </c>
       <c r="C52" s="10">
-        <v>1544</v>
+        <v>1898</v>
       </c>
       <c r="D52" s="11">
-        <v>0.32500000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E52" s="10">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F52" s="10">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="G52" s="10">
-        <v>1811</v>
+        <v>1945</v>
       </c>
       <c r="H52" s="10">
-        <v>1374</v>
+        <v>1649</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>17</v>
@@ -3132,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="L52" s="10">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3140,13 +3140,13 @@
         <v>64</v>
       </c>
       <c r="B53" s="13">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C53" s="13">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D53" s="14">
-        <v>0.47</v>
+        <v>-0.20699999999999999</v>
       </c>
       <c r="E53" s="13">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="13">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H53" s="13">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I53" s="13">
         <v>0</v>
@@ -3178,28 +3178,28 @@
         <v>65</v>
       </c>
       <c r="B54" s="13">
-        <v>789</v>
+        <v>927</v>
       </c>
       <c r="C54" s="13">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D54" s="14">
-        <v>0.18</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="E54" s="13">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F54" s="13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G54" s="13">
-        <v>779</v>
+        <v>903</v>
       </c>
       <c r="H54" s="13">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="I54" s="13">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="J54" s="13">
         <v>0.34</v>
@@ -3208,7 +3208,7 @@
         <v>17</v>
       </c>
       <c r="L54" s="13">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3216,13 +3216,13 @@
         <v>66</v>
       </c>
       <c r="B55" s="13">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="C55" s="13">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="D55" s="14">
-        <v>-4.5999999999999999E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E55" s="13">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="13">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="H55" s="13">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
@@ -3254,25 +3254,25 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="C56" s="13">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="D56" s="14">
-        <v>-8.1000000000000003E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E56" s="13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F56" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="13">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="H56" s="13">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3292,13 +3292,13 @@
         <v>68</v>
       </c>
       <c r="B57" s="13">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C57" s="13">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D57" s="14">
-        <v>1.3440000000000001</v>
+        <v>-0.217</v>
       </c>
       <c r="E57" s="13">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="13">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H57" s="13">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3330,13 +3330,13 @@
         <v>69</v>
       </c>
       <c r="B58" s="13">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C58" s="13">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="D58" s="14">
-        <v>1.03</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E58" s="13">
         <v>0</v>
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="13">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="H58" s="13">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J58" s="13">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="K58" s="13">
         <v>0</v>
@@ -3368,13 +3368,13 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C59" s="13">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D59" s="14">
-        <v>1.8839999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E59" s="13">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="13">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H59" s="13">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -3406,25 +3406,25 @@
         <v>71</v>
       </c>
       <c r="B60" s="13">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="C60" s="13">
-        <v>284</v>
+        <v>445</v>
       </c>
       <c r="D60" s="14">
-        <v>0.49399999999999999</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="E60" s="13">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="F60" s="13">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="G60" s="13">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H60" s="13">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3444,37 +3444,37 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>1999</v>
+        <v>1616</v>
       </c>
       <c r="C61" s="10">
-        <v>1681</v>
+        <v>1752</v>
       </c>
       <c r="D61" s="11">
-        <v>0.189</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="E61" s="10">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="F61" s="10">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G61" s="10">
-        <v>1544</v>
+        <v>1204</v>
       </c>
       <c r="H61" s="10">
-        <v>1250</v>
+        <v>1323</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="10">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="K61" s="10" t="s">
         <v>17</v>
       </c>
       <c r="L61" s="10">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,37 +3482,37 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>963</v>
+        <v>564</v>
       </c>
       <c r="C62" s="13">
-        <v>667</v>
+        <v>619</v>
       </c>
       <c r="D62" s="14">
-        <v>0.44400000000000001</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="E62" s="13">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F62" s="13">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G62" s="13">
-        <v>916</v>
+        <v>540</v>
       </c>
       <c r="H62" s="13">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J62" s="13">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="K62" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L62" s="13">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3520,25 +3520,25 @@
         <v>74</v>
       </c>
       <c r="B63" s="13">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C63" s="13">
-        <v>437</v>
+        <v>525</v>
       </c>
       <c r="D63" s="14">
-        <v>-1.4E-2</v>
+        <v>-0.151</v>
       </c>
       <c r="E63" s="13">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F63" s="13">
         <v>82</v>
       </c>
       <c r="G63" s="13">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="H63" s="13">
-        <v>355</v>
+        <v>443</v>
       </c>
       <c r="I63" s="13">
         <v>0</v>
@@ -3561,22 +3561,22 @@
         <v>606</v>
       </c>
       <c r="C64" s="13">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="D64" s="14">
-        <v>4.9000000000000002E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E64" s="13">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F64" s="13">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G64" s="13">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H64" s="13">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3596,25 +3596,25 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C65" s="10">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D65" s="11">
-        <v>0.67800000000000005</v>
+        <v>-0.121</v>
       </c>
       <c r="E65" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F65" s="10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G65" s="10">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H65" s="10">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I65" s="10">
         <v>0</v>
@@ -3634,25 +3634,25 @@
         <v>77</v>
       </c>
       <c r="B66" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" s="13">
+        <v>18</v>
+      </c>
+      <c r="D66" s="14">
+        <v>-0.191</v>
+      </c>
+      <c r="E66" s="13">
         <v>10</v>
       </c>
-      <c r="D66" s="14">
-        <v>0.32</v>
-      </c>
-      <c r="E66" s="13">
-        <v>9</v>
-      </c>
       <c r="F66" s="13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G66" s="13">
         <v>5</v>
       </c>
       <c r="H66" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I66" s="13">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
+        <v>64</v>
+      </c>
+      <c r="C67" s="13">
         <v>71</v>
       </c>
-      <c r="C67" s="13">
-        <v>40</v>
-      </c>
       <c r="D67" s="14">
-        <v>0.77100000000000002</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="13">
+        <v>64</v>
+      </c>
+      <c r="H67" s="13">
         <v>71</v>
-      </c>
-      <c r="H67" s="13">
-        <v>40</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>20376</v>
+        <v>19334</v>
       </c>
       <c r="C68" s="10">
-        <v>16380</v>
+        <v>19682</v>
       </c>
       <c r="D68" s="11">
-        <v>0.24399999999999999</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>3076</v>
+        <v>3214</v>
       </c>
       <c r="F68" s="10">
-        <v>2822</v>
+        <v>3216</v>
       </c>
       <c r="G68" s="10">
-        <v>17283</v>
+        <v>16102</v>
       </c>
       <c r="H68" s="10">
-        <v>13541</v>
+        <v>16447</v>
       </c>
       <c r="I68" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J68" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K68" s="10">
+        <v>7</v>
+      </c>
+      <c r="L68" s="10">
         <v>6</v>
-      </c>
-      <c r="L68" s="10">
-        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
